--- a/biology/Botanique/Carex_laevigata/Carex_laevigata.xlsx
+++ b/biology/Botanique/Carex_laevigata/Carex_laevigata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laîche lisse
 Carex laevigata, de nom commun Laîche lisse, est une espèce de plantes vivaces de la famille des Cyperaceae et du genre Carex.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Carex » vient « du latin carere, manquer : épi supérieur ordinairement mâle et manquant de graines ; ou du grec cairô, je coupe, ou bien encore carax, fossé : plantes souvent à feuilles coupantes et croissant dans les fossés (Coste) »[2]. Laevigata signifie « lisse ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Carex » vient « du latin carere, manquer : épi supérieur ordinairement mâle et manquant de graines ; ou du grec cairô, je coupe, ou bien encore carax, fossé : plantes souvent à feuilles coupantes et croissant dans les fossés (Coste) ». Laevigata signifie « lisse ».
 </t>
         </is>
       </c>
@@ -545,14 +559,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Aspect général.
 			Ligules (détail).
-La laîche lisse est une plante vivace à souche épaisse et rampante ; les tiges sont trigones, lisses, robustes, de 40 à 120 cm de hauteur ; les feuilles sont vert pâle, larges, de 4 à 10 mm de largeur, carénées, rudes ; il y a une ligule longue et aiguë, et une antiligule (opposée au limbe foliaire) plus courte et obtuse[3].
-Appareil reproducteur
-L'inflorescence est verte ou vert-brunâtre, espacée ; les bractées sont engainantes, dépassant l'inflorescence, mais plus courtes que la tige ; l'épi mâle unique est rougeâtre, terminal ; il y a 2 à 4 épis femelles espacés, pédonculés, cylindriques, de 3 à 5 cm de longueur ; les écailles femelles sont rousses à nervure vert-blanchâtre, lancéolées et prolongées en pointe ; il y a trois stigmates ; les utricules sont verdâtres, se terminant en long bec bifide et un peu scabre, dépassant l'écaille. La floraison a lieu de mai à juillet[3].
-Confusions possibles
-La Laîche lisse peut être confondue avec de nombreuses autres espèces de laîches ; on peut cependant la caractériser par ses feuilles larges et ses ligules développées[3].
+La laîche lisse est une plante vivace à souche épaisse et rampante ; les tiges sont trigones, lisses, robustes, de 40 à 120 cm de hauteur ; les feuilles sont vert pâle, larges, de 4 à 10 mm de largeur, carénées, rudes ; il y a une ligule longue et aiguë, et une antiligule (opposée au limbe foliaire) plus courte et obtuse.
 </t>
         </is>
       </c>
@@ -578,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hémicryptophyte, elle pousse essentiellement dans les forêts humides, et particulièrement dans les aulnaies à sphaignes[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est verte ou vert-brunâtre, espacée ; les bractées sont engainantes, dépassant l'inflorescence, mais plus courtes que la tige ; l'épi mâle unique est rougeâtre, terminal ; il y a 2 à 4 épis femelles espacés, pédonculés, cylindriques, de 3 à 5 cm de longueur ; les écailles femelles sont rousses à nervure vert-blanchâtre, lancéolées et prolongées en pointe ; il y a trois stigmates ; les utricules sont verdâtres, se terminant en long bec bifide et un peu scabre, dépassant l'écaille. La floraison a lieu de mai à juillet.
 </t>
         </is>
       </c>
@@ -609,12 +631,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce est présente dans l'ouest, le centre et le sud-ouest de l'Europe, du Portugal à l'Irlande et à l’Écosse jusqu'en Allemagne et en France ; aussi au Maghreb. En France, elle est présente principalement dans l'ouest, en Bretagne, Normandie, Aquitaine et dans une grande partie du Massif central, jusqu'au Morvan ; elle est rare dans le Nord, dans le Bassin parisien et dans les Ardennes ; elle est très rare voire absente ailleurs[3].
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Laîche lisse peut être confondue avec de nombreuses autres espèces de laîches ; on peut cependant la caractériser par ses feuilles larges et ses ligules développées.
 </t>
         </is>
       </c>
@@ -640,12 +668,80 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hémicryptophyte, elle pousse essentiellement dans les forêts humides, et particulièrement dans les aulnaies à sphaignes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carex_laevigata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carex_laevigata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans l'ouest, le centre et le sud-ouest de l'Europe, du Portugal à l'Irlande et à l’Écosse jusqu'en Allemagne et en France ; aussi au Maghreb. En France, elle est présente principalement dans l'ouest, en Bretagne, Normandie, Aquitaine et dans une grande partie du Massif central, jusqu'au Morvan ; elle est rare dans le Nord, dans le Bassin parisien et dans les Ardennes ; elle est très rare voire absente ailleurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carex_laevigata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carex_laevigata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, la laîche lisse semble être en régression sur ses marges sud (sud du Massif central), est (Bassin parisien) et nord (Flandres, Ardennes). Elle est menacée par le drainage agricole et l'intensification de la sylviculture dans les forêts marécageuses[3]. À l'échelle du pays, l'espèce est en « préoccupation mineure » (LC), mais est « en danger critique d'extinction » (CR) en Franche-Comté, Haute-Normandie, Lorraine et Nord-Pas-de-Calais, et « en danger » (EN) en Île de France et Picardie[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la laîche lisse semble être en régression sur ses marges sud (sud du Massif central), est (Bassin parisien) et nord (Flandres, Ardennes). Elle est menacée par le drainage agricole et l'intensification de la sylviculture dans les forêts marécageuses. À l'échelle du pays, l'espèce est en « préoccupation mineure » (LC), mais est « en danger critique d'extinction » (CR) en Franche-Comté, Haute-Normandie, Lorraine et Nord-Pas-de-Calais, et « en danger » (EN) en Île de France et Picardie.
 </t>
         </is>
       </c>
